--- a/Tables_Figures/output/table08_PROP_example_stimulus.xlsx
+++ b/Tables_Figures/output/table08_PROP_example_stimulus.xlsx
@@ -41,22 +41,22 @@
     <t>Unrelated</t>
   </si>
   <si>
-    <t>The jar near the sticky lid</t>
+    <t>The atlas by the detailed map</t>
   </si>
   <si>
-    <t>The jar near the sticky cookie</t>
+    <t>The atlas by the detailed globe</t>
   </si>
   <si>
-    <t>The jar near the sticky bagel</t>
+    <t>The atlas by the detailed journal</t>
   </si>
   <si>
-    <t>The jar near the sticky lids</t>
+    <t>The atlas by the detailed maps</t>
   </si>
   <si>
-    <t>The jar near the sticky cookies</t>
+    <t>The atlas by the detailed globes</t>
   </si>
   <si>
-    <t>The jar near the sticky bagels</t>
+    <t>The atlas by the detailed journals</t>
   </si>
 </sst>
 </file>

--- a/Tables_Figures/output/table08_PROP_example_stimulus.xlsx
+++ b/Tables_Figures/output/table08_PROP_example_stimulus.xlsx
@@ -41,22 +41,22 @@
     <t>Unrelated</t>
   </si>
   <si>
-    <t>The atlas by the detailed map</t>
+    <t>The jar near the sticky lid</t>
   </si>
   <si>
-    <t>The atlas by the detailed globe</t>
+    <t>The jar near the sticky cookie</t>
   </si>
   <si>
-    <t>The atlas by the detailed journal</t>
+    <t>The jar near the stale bagel</t>
   </si>
   <si>
-    <t>The atlas by the detailed maps</t>
+    <t>The jar near the sticky lids</t>
   </si>
   <si>
-    <t>The atlas by the detailed globes</t>
+    <t>The jar near the sticky cookies</t>
   </si>
   <si>
-    <t>The atlas by the detailed journals</t>
+    <t>The jar near the stale bagels</t>
   </si>
 </sst>
 </file>

--- a/Tables_Figures/output/table08_PROP_example_stimulus.xlsx
+++ b/Tables_Figures/output/table08_PROP_example_stimulus.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Relationship</t>
   </si>
@@ -21,15 +21,6 @@
   </si>
   <si>
     <t>Plural</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
   </si>
   <si>
     <t>Attribute+Assoc.</t>
@@ -108,14 +99,13 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1"/>
-      <c r="B1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
     </row>
@@ -129,9 +119,6 @@
       <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -142,9 +129,6 @@
       </c>
       <c r="C3" t="s">
         <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="4">
@@ -157,9 +141,6 @@
       <c r="C4" t="s">
         <v>11</v>
       </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
